--- a/biology/Botanique/Arboretum_de_Trsteno/Arboretum_de_Trsteno.xlsx
+++ b/biology/Botanique/Arboretum_de_Trsteno/Arboretum_de_Trsteno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arboretum de Trsteno est un arboretum situé sur le territoire de la ville croate de Trsteno.
@@ -513,7 +525,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboretum, situé à environ 18 km au nord-ouest de la ville de Dubrovnik, au sud de la Croatie, est établi le long de la route côtière entre les villages d'Orašac et de Slano.
 C'est le seul arboretum de la côte orientale de l'Adriatique.
@@ -545,7 +559,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la troisième saison de la série télévisée Game of Thrones, l'arboretum de Trsteno est utilisé en tant que jardin des Tyrell dans Port-Réal.
 </t>
